--- a/xlsx/贝尼西亚 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/贝尼西亚 (加利福尼亚州)_intext.xlsx
@@ -89,43 +89,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫比蒂諾 (加利福尼亞州)</t>
+    <t>库比蒂诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%BE%85%E4%BC%8A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉爾羅伊 (加利福尼亞州)</t>
+    <t>吉尔罗伊 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯 (加利福尼亞州)</t>
+    <t>洛思阿图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯山丘 (加利福尼亞州)</t>
+    <t>洛思阿图斯山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思加圖斯 (加利福尼亞州)</t>
+    <t>洛思加图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E7%9A%AE%E5%A1%94%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A0%A4%E8%81%96%E5%88%A9%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙堤聖利諾 (加利福尼亞州)</t>
+    <t>蒙堤圣利诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根山丘 (加利福尼亞州)</t>
+    <t>摩根山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%99%AF%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉托加 (加利福尼亞州)</t>
+    <t>萨拉托加 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -191,25 +191,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9F%8F%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧柏尼 (加利福尼亞州)</t>
+    <t>奥柏尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%AF%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>都伯林 (加利福尼亞州)</t>
+    <t>都伯林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8E%AB%E5%88%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>愛莫利維爾</t>
+    <t>爱莫利维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BD%9B%E6%91%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利佛摩 (加利福尼亞州)</t>
+    <t>利佛摩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (加利福尼亞州)</t>
+    <t>纽华克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%88%A9%E5%AE%89%E5%8D%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖利安卓 (加利福尼亞州)</t>
+    <t>圣利安卓 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合市 (加利福尼亞州)</t>
+    <t>联合市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%88%81%E5%8E%BF</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%9C%88%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>半月灣 (加利福尼亞州)</t>
+    <t>半月湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%B0%94%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B8%83%E9%B2%81%E8%AF%BA_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬林縣</t>
+    <t>马林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E9%9F%A6%E4%BB%A3%E9%9B%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安條克 (加利福尼亞州)</t>
+    <t>安条克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BC%A6%E7%89%B9%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康科德 (加利福尼亞州)</t>
+    <t>康科德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%B3%BD%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>美利堅峽谷 (加利福尼亞州)</t>
+    <t>美利坚峡谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E6%96%AF%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
